--- a/templates/Report Str.xlsx
+++ b/templates/Report Str.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D07E15-40CD-48F4-A278-A48DF73C1113}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E4136-B01D-4F4E-8C9D-C44025A189BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -67,8 +67,8 @@
     <definedName name="PV_Réf_éprouvette">#REF!</definedName>
     <definedName name="PV_Température">#REF!</definedName>
     <definedName name="PV_εmax_imposée">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Courbes!$A$1:$H$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Courbes!$A$1:$P$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$H$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$M$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>LABORATORY REPORT</t>
   </si>
   <si>
     <t>Test Conditions</t>
@@ -474,9 +471,6 @@
     <t>min  1er cycle</t>
   </si>
   <si>
-    <t>STRAIN CONTROL</t>
-  </si>
-  <si>
     <t>Strain Controlled Fatigue testing</t>
   </si>
   <si>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t>Str</t>
+  </si>
+  <si>
+    <t>COMPTE-RENDU D'ESSAIS DE FATIGUE</t>
+  </si>
+  <si>
+    <t>CONTRÔLE EFFORT</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1462,8 +1462,23 @@
     <xf numFmtId="3" fontId="24" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,9 +1486,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1494,9 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1505,7 +1514,17 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1552,16 +1571,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>135321</xdr:rowOff>
+      <xdr:colOff>464306</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41BAA15-8F8E-4977-B386-00DF1C4233BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204F9547-013B-4FB7-A4B5-E3813EC36A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1604,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="742950" cy="744921"/>
+          <a:ext cx="911981" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,25 +1623,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178575</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
+        <xdr:cNvPr id="7" name="Image 11" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C9D285-5907-4A4D-AB3E-2ABC0DAC5D8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1F9B9E-5998-4387-8AAE-51DCC6B66FC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1645,13 +1664,16 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6067425" y="0"/>
-          <a:ext cx="371474" cy="1874025"/>
+          <a:off x="6172200" y="0"/>
+          <a:ext cx="409575" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1659,6 +1681,16 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2071,10 +2103,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2086,39 +2118,39 @@
     <col min="5" max="5" width="11.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="11" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" style="11"/>
     <col min="11" max="13" width="10.7109375" style="11" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="154" t="s">
-        <v>45</v>
-      </c>
+      <c r="B1" s="154"/>
       <c r="C1" s="154"/>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
       <c r="F1" s="154"/>
-      <c r="G1" s="151" t="s">
-        <v>119</v>
-      </c>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="151"/>
+      <c r="B2" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="151"/>
+      <c r="B3" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="153"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2126,7 +2158,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="151"/>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -2139,7 +2171,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="151"/>
+      <c r="G5" s="153"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -2149,19 +2181,19 @@
         <v>38</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="151"/>
+        <v>111</v>
+      </c>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="151"/>
+      <c r="G7" s="153"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2169,17 +2201,17 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="151"/>
+      <c r="G8" s="153"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="151"/>
+      <c r="G9" s="153"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2187,7 +2219,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="153"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2195,7 +2227,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="151"/>
+      <c r="G11" s="153"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2207,62 +2239,62 @@
     </row>
     <row r="13" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
+      <c r="C13" s="159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="161"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
+      <c r="A18" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2273,28 +2305,28 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
+        <v>119</v>
+      </c>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -2304,7 +2336,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2354,7 +2386,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2364,7 +2396,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2374,7 +2406,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2393,7 +2425,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
@@ -2414,7 +2446,7 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2424,7 +2456,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2434,7 +2466,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -2445,16 +2477,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
+      <c r="A37" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2462,13 +2494,13 @@
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
+        <v>52</v>
+      </c>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2485,10 +2517,10 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2501,7 +2533,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
@@ -2519,7 +2551,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="14" t="str">
         <f>CONCATENATE("Closed loop servo controlled hydraulic system of ",K43," kN capacity.")</f>
@@ -2530,7 +2562,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
       <c r="K43" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L43" s="80"/>
       <c r="M43" s="80"/>
@@ -2538,7 +2570,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="13"/>
@@ -2552,7 +2584,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Furnace",""),IF(L45&gt;0,"Coil","")))</f>
@@ -2568,86 +2600,112 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="12"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="15"/>
       <c r="K46" s="80"/>
       <c r="L46" s="80"/>
       <c r="M46" s="80"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="5"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="15"/>
       <c r="K47" s="80"/>
       <c r="L47" s="80"/>
       <c r="M47" s="80"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="12"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="8" t="s">
-        <v>35</v>
+      <c r="B49" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G1:G11"/>
+  <mergeCells count="8">
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B1:F3"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -2655,17 +2713,27 @@
     <mergeCell ref="C20:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C$20=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C$44=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C$33=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$34=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -2681,10 +2749,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="D60" sqref="D60:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2765,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="86" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="87"/>
     </row>
@@ -2706,7 +2774,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="90"/>
@@ -2714,7 +2782,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="89"/>
       <c r="C6" s="90"/>
@@ -2722,7 +2790,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="46" t="s">
@@ -2732,7 +2800,7 @@
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="48" t="s">
@@ -2742,7 +2810,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="48" t="s">
@@ -2760,38 +2828,38 @@
     </row>
     <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="141"/>
       <c r="B14" s="142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="143" t="s">
         <v>30</v>
@@ -2801,7 +2869,7 @@
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="145"/>
       <c r="B15" s="146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="147" t="s">
         <v>30</v>
@@ -2810,7 +2878,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="54" t="s">
@@ -2820,41 +2888,41 @@
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="58"/>
       <c r="C19" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="118"/>
       <c r="C20" s="119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="135"/>
     </row>
@@ -2864,7 +2932,7 @@
       </c>
       <c r="B21" s="118"/>
       <c r="C21" s="110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="56"/>
     </row>
@@ -2882,91 +2950,91 @@
       </c>
       <c r="B23" s="118"/>
       <c r="C23" s="110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="118"/>
       <c r="C24" s="110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="121"/>
       <c r="C25" s="113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="64"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="109" t="s">
-        <v>116</v>
-      </c>
       <c r="C27" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="110" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="110" t="s">
-        <v>87</v>
       </c>
       <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="113" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>87</v>
       </c>
       <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="106"/>
       <c r="C31" s="107"/>
@@ -2974,116 +3042,116 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="115" t="s">
-        <v>90</v>
-      </c>
       <c r="C32" s="110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="110" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>87</v>
       </c>
       <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="110" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="110" t="s">
-        <v>87</v>
       </c>
       <c r="D34" s="61"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="61"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="C36" s="110" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="110" t="s">
-        <v>96</v>
       </c>
       <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="66"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="66"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="66"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="110" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="110" t="s">
-        <v>87</v>
       </c>
       <c r="D40" s="136"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
       <c r="B41" s="93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="94"/>
       <c r="D41" s="95"/>
@@ -3091,7 +3159,7 @@
     <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="96"/>
       <c r="B42" s="97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" s="98"/>
       <c r="D42" s="99"/>
@@ -3110,7 +3178,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="130"/>
       <c r="C45" s="131"/>
@@ -3118,7 +3186,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="137" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="139" t="s">
@@ -3128,7 +3196,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="138"/>
       <c r="C47" s="139" t="s">
@@ -3138,7 +3206,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" s="89"/>
       <c r="C48" s="149" t="s">
@@ -3148,7 +3216,7 @@
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="44"/>
       <c r="C49" s="48"/>
@@ -3156,7 +3224,7 @@
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="44"/>
       <c r="C50" s="48"/>
@@ -3164,17 +3232,17 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="47"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="48" t="s">
@@ -3184,11 +3252,11 @@
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="44"/>
       <c r="C53" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="68"/>
     </row>
@@ -3610,11 +3678,11 @@
       <c r="CY58" s="45"/>
     </row>
     <row r="59" spans="1:103" s="122" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="162"/>
+      <c r="D59" s="151"/>
     </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="69"/>
       <c r="C60" s="70" t="s">
@@ -3671,7 +3739,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.143700787" right="0.143700787" top="0.78740157480314998" bottom="0.59055118110236204" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9
@@ -3686,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3699,10 +3767,10 @@
     <row r="1" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="74"/>
       <c r="D1" s="74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="78">
@@ -3711,23 +3779,26 @@
       </c>
       <c r="I1" s="78"/>
       <c r="N1" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="77"/>
       <c r="P1" s="78">
-        <f>'En-tête'!N5</f>
+        <f>H1</f>
         <v>0</v>
       </c>
       <c r="Q1" s="78"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="50" man="1"/>
+  </colBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
@@ -3875,6 +3946,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4039,22 +4125,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4071,29 +4167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/Report Str.xlsx
+++ b/templates/Report Str.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E4136-B01D-4F4E-8C9D-C44025A189BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9DBB0-2F0F-487C-9C65-E2F5E98E3D66}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,54 +162,27 @@
     <t>Position de rupture - Système 2</t>
   </si>
   <si>
-    <t>To:</t>
-  </si>
-  <si>
-    <t>Specimens measured and tested by Metcut France.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>All testing was conducted in accordance with the specifications referenced below.</t>
-  </si>
-  <si>
-    <t>Exceptions to these specifications, if any, are noted in the report.</t>
-  </si>
-  <si>
     <t>Joachim GALIPAUD</t>
   </si>
   <si>
     <t>Thierry OUISSE</t>
   </si>
   <si>
-    <t>Technical Manager</t>
-  </si>
-  <si>
     <t>This report may only be duplicated or copied on its entirety</t>
   </si>
   <si>
     <t>The results presented in this report relate only to the items tested</t>
   </si>
   <si>
-    <t>Rev:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Test:  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Specimens delivered by the customer. </t>
   </si>
   <si>
     <t>Specimens prepared by Metcut Research Inc.</t>
   </si>
   <si>
-    <t>Quality Manager</t>
-  </si>
-  <si>
-    <t>Report N°:</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -219,52 +192,10 @@
     <t>Project Information</t>
   </si>
   <si>
-    <t>Material identity:</t>
-  </si>
-  <si>
-    <t>Quantity of tests:</t>
-  </si>
-  <si>
-    <t>Machining Reference:</t>
-  </si>
-  <si>
-    <t>Machining Specification:</t>
-  </si>
-  <si>
-    <t>Drawing number:</t>
-  </si>
-  <si>
-    <t>Test specification:</t>
-  </si>
-  <si>
     <t>Mode:</t>
   </si>
   <si>
-    <t>Waveform:</t>
-  </si>
-  <si>
-    <t>Test machine:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat Source: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project N°:  </t>
-  </si>
-  <si>
     <t>________________________</t>
-  </si>
-  <si>
-    <t>Authorization:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Quantity of specimens:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplied: </t>
   </si>
   <si>
     <t>Rev</t>
@@ -450,12 +381,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>DRAFT</t>
-  </si>
-  <si>
-    <t>Axial control</t>
-  </si>
-  <si>
     <t>Cycle min</t>
   </si>
   <si>
@@ -471,9 +396,6 @@
     <t>min  1er cycle</t>
   </si>
   <si>
-    <t>Strain Controlled Fatigue testing</t>
-  </si>
-  <si>
     <t>Customer Reference</t>
   </si>
   <si>
@@ -496,6 +418,84 @@
   </si>
   <si>
     <t>CONTRÔLE EFFORT</t>
+  </si>
+  <si>
+    <t>A :</t>
+  </si>
+  <si>
+    <t>Rapport N° :</t>
+  </si>
+  <si>
+    <t>Rev :</t>
+  </si>
+  <si>
+    <t>TEMPORAIRE</t>
+  </si>
+  <si>
+    <t>Date :</t>
+  </si>
+  <si>
+    <t>N° de Commande :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° du projet :  </t>
+  </si>
+  <si>
+    <t>Type d'essai :</t>
+  </si>
+  <si>
+    <t>Essais de fatigue vibratoire en contrôle effort</t>
+  </si>
+  <si>
+    <t>Tous les essais ont été conduits conformément aux spécifications indiquées ci-dessous.</t>
+  </si>
+  <si>
+    <t>Toute exception est indiquée dans le rapport si nécessaire.</t>
+  </si>
+  <si>
+    <t>Eprouvettes mesurées et testées par Metcut France.</t>
+  </si>
+  <si>
+    <t>Référence matière :</t>
+  </si>
+  <si>
+    <t>Nombre d'éprouvettes :</t>
+  </si>
+  <si>
+    <t>Nombre d'essais :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine : </t>
+  </si>
+  <si>
+    <t>Référence d'usinage :</t>
+  </si>
+  <si>
+    <t>Specification d'usinage :</t>
+  </si>
+  <si>
+    <t>N° de dessin :</t>
+  </si>
+  <si>
+    <t>Specification d'essai :</t>
+  </si>
+  <si>
+    <t>Contrôle Axial</t>
+  </si>
+  <si>
+    <t>Signal :</t>
+  </si>
+  <si>
+    <t>Machine :</t>
+  </si>
+  <si>
+    <t>Chauffage :</t>
+  </si>
+  <si>
+    <t>Directeur Technique</t>
+  </si>
+  <si>
+    <t>Responsable Qualité</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1150,9 +1150,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,6 +1477,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,6 +1506,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1514,7 +1517,27 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -2105,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2125,32 +2148,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="153"/>
+      <c r="B2" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="153"/>
+      <c r="B3" s="155" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="152"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2158,42 +2181,42 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="153"/>
+      <c r="G4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="153"/>
+      <c r="G5" s="152"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="25" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="153"/>
+        <v>104</v>
+      </c>
+      <c r="G6" s="152"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="153"/>
+      <c r="G7" s="152"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2201,17 +2224,17 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="153"/>
+      <c r="G8" s="152"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="153"/>
+      <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2219,7 +2242,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="153"/>
+      <c r="G10" s="152"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2227,7 +2250,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="153"/>
+      <c r="G11" s="152"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2239,13 +2262,13 @@
     </row>
     <row r="13" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C13" s="159" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D13" s="160"/>
       <c r="E13" s="160"/>
@@ -2254,8 +2277,8 @@
       <c r="H13" s="161"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="162"/>
       <c r="D14" s="162"/>
       <c r="E14" s="162"/>
@@ -2264,8 +2287,8 @@
       <c r="H14" s="162"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
       <c r="E15" s="163"/>
@@ -2274,8 +2297,8 @@
       <c r="H15" s="163"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="164"/>
       <c r="D16" s="164"/>
       <c r="E16" s="164"/>
@@ -2286,7 +2309,7 @@
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="157" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B18" s="157"/>
       <c r="C18" s="157"/>
@@ -2304,8 +2327,8 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="40" t="s">
-        <v>119</v>
+      <c r="B20" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="165"/>
       <c r="D20" s="165"/>
@@ -2326,17 +2349,17 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="29" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2346,7 +2369,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
@@ -2356,7 +2379,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="16"/>
@@ -2367,7 +2390,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="16"/>
@@ -2386,7 +2409,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2396,7 +2419,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2406,7 +2429,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2420,12 +2443,12 @@
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="M31" s="82"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
@@ -2434,19 +2457,19 @@
       <c r="D32" s="13"/>
       <c r="E32" s="33"/>
       <c r="F32" s="16"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="83"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="82"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2456,7 +2479,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2466,7 +2489,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -2478,7 +2501,7 @@
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="157" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B37" s="157"/>
       <c r="C37" s="157"/>
@@ -2493,8 +2516,8 @@
     </row>
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="40" t="s">
-        <v>52</v>
+      <c r="B39" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="C39" s="158"/>
       <c r="D39" s="158"/>
@@ -2510,93 +2533,94 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="14" t="str">
-        <f>CONCATENATE("Closed loop servo controlled hydraulic system of ",K43," kN capacity.")</f>
-        <v>Closed loop servo controlled hydraulic system of xxx kN capacity.</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
-      <c r="K43" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+        <v>123</v>
+      </c>
+      <c r="C43" s="166" t="str">
+        <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
+        <v>Système hydraulique de xxx kN avec servovalve contrôlé par une boucle d'asservissement.</v>
+      </c>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="K43" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="81"/>
+        <v>94</v>
+      </c>
+      <c r="C44" s="80"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C45" s="13" t="str">
-        <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Furnace",""),IF(L45&gt;0,"Coil","")))</f>
+        <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Four 3 zones à résistances",""),IF(L45&gt;0,"Induction","")))</f>
         <v>NA</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -2606,9 +2630,9 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -2618,9 +2642,9 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2630,79 +2654,80 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="12"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="8" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="8" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="C39:G39"/>
@@ -2763,979 +2788,979 @@
     <col min="4" max="107" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="86" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K1" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="87"/>
-    </row>
-    <row r="4" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="42"/>
+    <row r="1" spans="1:16" s="85" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="86"/>
+    </row>
+    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="140"/>
+      <c r="B14" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="143"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="144"/>
+      <c r="B15" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="147"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="59"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="134"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="117"/>
+      <c r="C21" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="55"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="55"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="117"/>
+      <c r="C24" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="120"/>
+      <c r="C25" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="63"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="60"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="B32" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="C32" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="60"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="C33" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="60"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="C34" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="60"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="B35" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="60"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="51" t="s">
+      <c r="B36" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="C36" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="51" t="s">
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="C37" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="65"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="47"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142" t="s">
+      <c r="C38" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="65"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="144"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
-      <c r="B15" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="147" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="148"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="C39" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="65"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="C40" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="135"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="94"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="95"/>
+      <c r="B42" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="97"/>
+      <c r="D42" s="98"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="122"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="51" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="139"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="137"/>
+      <c r="C47" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="139"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="88"/>
+      <c r="C48" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="149"/>
+    </row>
+    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="60"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="123"/>
+    </row>
+    <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="123"/>
+    </row>
+    <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="135"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="56"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="56"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+      <c r="B51" s="43"/>
+      <c r="C51" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="110" t="s">
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="62"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="120" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="66"/>
+    </row>
+    <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="63"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105" t="s">
+      <c r="B53" s="43"/>
+      <c r="C53" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="64"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="56"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="56"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="s">
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="1:103" s="103" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="102"/>
+    </row>
+    <row r="55" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="44"/>
+      <c r="AC55" s="44"/>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="44"/>
+      <c r="AJ55" s="44"/>
+      <c r="AK55" s="44"/>
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="44"/>
+      <c r="AP55" s="44"/>
+      <c r="AQ55" s="44"/>
+      <c r="AR55" s="44"/>
+      <c r="AS55" s="44"/>
+      <c r="AT55" s="44"/>
+      <c r="AU55" s="44"/>
+      <c r="AV55" s="44"/>
+      <c r="AW55" s="44"/>
+      <c r="AX55" s="44"/>
+      <c r="AY55" s="44"/>
+      <c r="AZ55" s="44"/>
+      <c r="BA55" s="44"/>
+      <c r="BB55" s="44"/>
+      <c r="BC55" s="44"/>
+      <c r="BD55" s="44"/>
+      <c r="BE55" s="44"/>
+      <c r="BF55" s="44"/>
+      <c r="BG55" s="44"/>
+      <c r="BH55" s="44"/>
+      <c r="BI55" s="44"/>
+      <c r="BJ55" s="44"/>
+      <c r="BK55" s="44"/>
+      <c r="BL55" s="44"/>
+      <c r="BM55" s="44"/>
+      <c r="BN55" s="44"/>
+      <c r="BO55" s="44"/>
+      <c r="BP55" s="44"/>
+      <c r="BQ55" s="44"/>
+      <c r="BR55" s="44"/>
+      <c r="BS55" s="44"/>
+      <c r="BT55" s="44"/>
+      <c r="BU55" s="44"/>
+      <c r="BV55" s="44"/>
+      <c r="BW55" s="44"/>
+      <c r="BX55" s="44"/>
+      <c r="BY55" s="44"/>
+      <c r="BZ55" s="44"/>
+      <c r="CA55" s="44"/>
+      <c r="CB55" s="44"/>
+      <c r="CC55" s="44"/>
+      <c r="CD55" s="44"/>
+      <c r="CE55" s="44"/>
+      <c r="CF55" s="44"/>
+      <c r="CG55" s="44"/>
+      <c r="CH55" s="44"/>
+      <c r="CI55" s="44"/>
+      <c r="CJ55" s="44"/>
+      <c r="CK55" s="44"/>
+      <c r="CL55" s="44"/>
+      <c r="CM55" s="44"/>
+      <c r="CN55" s="44"/>
+      <c r="CO55" s="44"/>
+      <c r="CP55" s="44"/>
+      <c r="CQ55" s="44"/>
+      <c r="CR55" s="44"/>
+      <c r="CS55" s="44"/>
+      <c r="CT55" s="44"/>
+      <c r="CU55" s="44"/>
+      <c r="CV55" s="44"/>
+      <c r="CW55" s="44"/>
+      <c r="CX55" s="44"/>
+      <c r="CY55" s="44"/>
+    </row>
+    <row r="56" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="44"/>
+      <c r="AJ56" s="44"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="44"/>
+      <c r="AM56" s="44"/>
+      <c r="AN56" s="44"/>
+      <c r="AO56" s="44"/>
+      <c r="AP56" s="44"/>
+      <c r="AQ56" s="44"/>
+      <c r="AR56" s="44"/>
+      <c r="AS56" s="44"/>
+      <c r="AT56" s="44"/>
+      <c r="AU56" s="44"/>
+      <c r="AV56" s="44"/>
+      <c r="AW56" s="44"/>
+      <c r="AX56" s="44"/>
+      <c r="AY56" s="44"/>
+      <c r="AZ56" s="44"/>
+      <c r="BA56" s="44"/>
+      <c r="BB56" s="44"/>
+      <c r="BC56" s="44"/>
+      <c r="BD56" s="44"/>
+      <c r="BE56" s="44"/>
+      <c r="BF56" s="44"/>
+      <c r="BG56" s="44"/>
+      <c r="BH56" s="44"/>
+      <c r="BI56" s="44"/>
+      <c r="BJ56" s="44"/>
+      <c r="BK56" s="44"/>
+      <c r="BL56" s="44"/>
+      <c r="BM56" s="44"/>
+      <c r="BN56" s="44"/>
+      <c r="BO56" s="44"/>
+      <c r="BP56" s="44"/>
+      <c r="BQ56" s="44"/>
+      <c r="BR56" s="44"/>
+      <c r="BS56" s="44"/>
+      <c r="BT56" s="44"/>
+      <c r="BU56" s="44"/>
+      <c r="BV56" s="44"/>
+      <c r="BW56" s="44"/>
+      <c r="BX56" s="44"/>
+      <c r="BY56" s="44"/>
+      <c r="BZ56" s="44"/>
+      <c r="CA56" s="44"/>
+      <c r="CB56" s="44"/>
+      <c r="CC56" s="44"/>
+      <c r="CD56" s="44"/>
+      <c r="CE56" s="44"/>
+      <c r="CF56" s="44"/>
+      <c r="CG56" s="44"/>
+      <c r="CH56" s="44"/>
+      <c r="CI56" s="44"/>
+      <c r="CJ56" s="44"/>
+      <c r="CK56" s="44"/>
+      <c r="CL56" s="44"/>
+      <c r="CM56" s="44"/>
+      <c r="CN56" s="44"/>
+      <c r="CO56" s="44"/>
+      <c r="CP56" s="44"/>
+      <c r="CQ56" s="44"/>
+      <c r="CR56" s="44"/>
+      <c r="CS56" s="44"/>
+      <c r="CT56" s="44"/>
+      <c r="CU56" s="44"/>
+      <c r="CV56" s="44"/>
+      <c r="CW56" s="44"/>
+      <c r="CX56" s="44"/>
+      <c r="CY56" s="44"/>
+    </row>
+    <row r="57" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="44"/>
+      <c r="AO57" s="44"/>
+      <c r="AP57" s="44"/>
+      <c r="AQ57" s="44"/>
+      <c r="AR57" s="44"/>
+      <c r="AS57" s="44"/>
+      <c r="AT57" s="44"/>
+      <c r="AU57" s="44"/>
+      <c r="AV57" s="44"/>
+      <c r="AW57" s="44"/>
+      <c r="AX57" s="44"/>
+      <c r="AY57" s="44"/>
+      <c r="AZ57" s="44"/>
+      <c r="BA57" s="44"/>
+      <c r="BB57" s="44"/>
+      <c r="BC57" s="44"/>
+      <c r="BD57" s="44"/>
+      <c r="BE57" s="44"/>
+      <c r="BF57" s="44"/>
+      <c r="BG57" s="44"/>
+      <c r="BH57" s="44"/>
+      <c r="BI57" s="44"/>
+      <c r="BJ57" s="44"/>
+      <c r="BK57" s="44"/>
+      <c r="BL57" s="44"/>
+      <c r="BM57" s="44"/>
+      <c r="BN57" s="44"/>
+      <c r="BO57" s="44"/>
+      <c r="BP57" s="44"/>
+      <c r="BQ57" s="44"/>
+      <c r="BR57" s="44"/>
+      <c r="BS57" s="44"/>
+      <c r="BT57" s="44"/>
+      <c r="BU57" s="44"/>
+      <c r="BV57" s="44"/>
+      <c r="BW57" s="44"/>
+      <c r="BX57" s="44"/>
+      <c r="BY57" s="44"/>
+      <c r="BZ57" s="44"/>
+      <c r="CA57" s="44"/>
+      <c r="CB57" s="44"/>
+      <c r="CC57" s="44"/>
+      <c r="CD57" s="44"/>
+      <c r="CE57" s="44"/>
+      <c r="CF57" s="44"/>
+      <c r="CG57" s="44"/>
+      <c r="CH57" s="44"/>
+      <c r="CI57" s="44"/>
+      <c r="CJ57" s="44"/>
+      <c r="CK57" s="44"/>
+      <c r="CL57" s="44"/>
+      <c r="CM57" s="44"/>
+      <c r="CN57" s="44"/>
+      <c r="CO57" s="44"/>
+      <c r="CP57" s="44"/>
+      <c r="CQ57" s="44"/>
+      <c r="CR57" s="44"/>
+      <c r="CS57" s="44"/>
+      <c r="CT57" s="44"/>
+      <c r="CU57" s="44"/>
+      <c r="CV57" s="44"/>
+      <c r="CW57" s="44"/>
+      <c r="CX57" s="44"/>
+      <c r="CY57" s="44"/>
+    </row>
+    <row r="58" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="44"/>
+      <c r="AP58" s="44"/>
+      <c r="AQ58" s="44"/>
+      <c r="AR58" s="44"/>
+      <c r="AS58" s="44"/>
+      <c r="AT58" s="44"/>
+      <c r="AU58" s="44"/>
+      <c r="AV58" s="44"/>
+      <c r="AW58" s="44"/>
+      <c r="AX58" s="44"/>
+      <c r="AY58" s="44"/>
+      <c r="AZ58" s="44"/>
+      <c r="BA58" s="44"/>
+      <c r="BB58" s="44"/>
+      <c r="BC58" s="44"/>
+      <c r="BD58" s="44"/>
+      <c r="BE58" s="44"/>
+      <c r="BF58" s="44"/>
+      <c r="BG58" s="44"/>
+      <c r="BH58" s="44"/>
+      <c r="BI58" s="44"/>
+      <c r="BJ58" s="44"/>
+      <c r="BK58" s="44"/>
+      <c r="BL58" s="44"/>
+      <c r="BM58" s="44"/>
+      <c r="BN58" s="44"/>
+      <c r="BO58" s="44"/>
+      <c r="BP58" s="44"/>
+      <c r="BQ58" s="44"/>
+      <c r="BR58" s="44"/>
+      <c r="BS58" s="44"/>
+      <c r="BT58" s="44"/>
+      <c r="BU58" s="44"/>
+      <c r="BV58" s="44"/>
+      <c r="BW58" s="44"/>
+      <c r="BX58" s="44"/>
+      <c r="BY58" s="44"/>
+      <c r="BZ58" s="44"/>
+      <c r="CA58" s="44"/>
+      <c r="CB58" s="44"/>
+      <c r="CC58" s="44"/>
+      <c r="CD58" s="44"/>
+      <c r="CE58" s="44"/>
+      <c r="CF58" s="44"/>
+      <c r="CG58" s="44"/>
+      <c r="CH58" s="44"/>
+      <c r="CI58" s="44"/>
+      <c r="CJ58" s="44"/>
+      <c r="CK58" s="44"/>
+      <c r="CL58" s="44"/>
+      <c r="CM58" s="44"/>
+      <c r="CN58" s="44"/>
+      <c r="CO58" s="44"/>
+      <c r="CP58" s="44"/>
+      <c r="CQ58" s="44"/>
+      <c r="CR58" s="44"/>
+      <c r="CS58" s="44"/>
+      <c r="CT58" s="44"/>
+      <c r="CU58" s="44"/>
+      <c r="CV58" s="44"/>
+      <c r="CW58" s="44"/>
+      <c r="CX58" s="44"/>
+      <c r="CY58" s="44"/>
+    </row>
+    <row r="59" spans="1:103" s="121" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="150"/>
+    </row>
+    <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="65"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="55"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="61"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="61"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="62"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="66"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="66"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="66"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="136"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="B41" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="123"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="132"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="140"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="137" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="140"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="150"/>
-    </row>
-    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="124"/>
-    </row>
-    <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="124"/>
-    </row>
-    <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="47"/>
-    </row>
-    <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="67"/>
-    </row>
-    <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="68"/>
-    </row>
-    <row r="54" spans="1:103" s="104" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-    </row>
-    <row r="55" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="45"/>
-      <c r="AF55" s="45"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="45"/>
-      <c r="AI55" s="45"/>
-      <c r="AJ55" s="45"/>
-      <c r="AK55" s="45"/>
-      <c r="AL55" s="45"/>
-      <c r="AM55" s="45"/>
-      <c r="AN55" s="45"/>
-      <c r="AO55" s="45"/>
-      <c r="AP55" s="45"/>
-      <c r="AQ55" s="45"/>
-      <c r="AR55" s="45"/>
-      <c r="AS55" s="45"/>
-      <c r="AT55" s="45"/>
-      <c r="AU55" s="45"/>
-      <c r="AV55" s="45"/>
-      <c r="AW55" s="45"/>
-      <c r="AX55" s="45"/>
-      <c r="AY55" s="45"/>
-      <c r="AZ55" s="45"/>
-      <c r="BA55" s="45"/>
-      <c r="BB55" s="45"/>
-      <c r="BC55" s="45"/>
-      <c r="BD55" s="45"/>
-      <c r="BE55" s="45"/>
-      <c r="BF55" s="45"/>
-      <c r="BG55" s="45"/>
-      <c r="BH55" s="45"/>
-      <c r="BI55" s="45"/>
-      <c r="BJ55" s="45"/>
-      <c r="BK55" s="45"/>
-      <c r="BL55" s="45"/>
-      <c r="BM55" s="45"/>
-      <c r="BN55" s="45"/>
-      <c r="BO55" s="45"/>
-      <c r="BP55" s="45"/>
-      <c r="BQ55" s="45"/>
-      <c r="BR55" s="45"/>
-      <c r="BS55" s="45"/>
-      <c r="BT55" s="45"/>
-      <c r="BU55" s="45"/>
-      <c r="BV55" s="45"/>
-      <c r="BW55" s="45"/>
-      <c r="BX55" s="45"/>
-      <c r="BY55" s="45"/>
-      <c r="BZ55" s="45"/>
-      <c r="CA55" s="45"/>
-      <c r="CB55" s="45"/>
-      <c r="CC55" s="45"/>
-      <c r="CD55" s="45"/>
-      <c r="CE55" s="45"/>
-      <c r="CF55" s="45"/>
-      <c r="CG55" s="45"/>
-      <c r="CH55" s="45"/>
-      <c r="CI55" s="45"/>
-      <c r="CJ55" s="45"/>
-      <c r="CK55" s="45"/>
-      <c r="CL55" s="45"/>
-      <c r="CM55" s="45"/>
-      <c r="CN55" s="45"/>
-      <c r="CO55" s="45"/>
-      <c r="CP55" s="45"/>
-      <c r="CQ55" s="45"/>
-      <c r="CR55" s="45"/>
-      <c r="CS55" s="45"/>
-      <c r="CT55" s="45"/>
-      <c r="CU55" s="45"/>
-      <c r="CV55" s="45"/>
-      <c r="CW55" s="45"/>
-      <c r="CX55" s="45"/>
-      <c r="CY55" s="45"/>
-    </row>
-    <row r="56" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="45"/>
-      <c r="W56" s="45"/>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="45"/>
-      <c r="AJ56" s="45"/>
-      <c r="AK56" s="45"/>
-      <c r="AL56" s="45"/>
-      <c r="AM56" s="45"/>
-      <c r="AN56" s="45"/>
-      <c r="AO56" s="45"/>
-      <c r="AP56" s="45"/>
-      <c r="AQ56" s="45"/>
-      <c r="AR56" s="45"/>
-      <c r="AS56" s="45"/>
-      <c r="AT56" s="45"/>
-      <c r="AU56" s="45"/>
-      <c r="AV56" s="45"/>
-      <c r="AW56" s="45"/>
-      <c r="AX56" s="45"/>
-      <c r="AY56" s="45"/>
-      <c r="AZ56" s="45"/>
-      <c r="BA56" s="45"/>
-      <c r="BB56" s="45"/>
-      <c r="BC56" s="45"/>
-      <c r="BD56" s="45"/>
-      <c r="BE56" s="45"/>
-      <c r="BF56" s="45"/>
-      <c r="BG56" s="45"/>
-      <c r="BH56" s="45"/>
-      <c r="BI56" s="45"/>
-      <c r="BJ56" s="45"/>
-      <c r="BK56" s="45"/>
-      <c r="BL56" s="45"/>
-      <c r="BM56" s="45"/>
-      <c r="BN56" s="45"/>
-      <c r="BO56" s="45"/>
-      <c r="BP56" s="45"/>
-      <c r="BQ56" s="45"/>
-      <c r="BR56" s="45"/>
-      <c r="BS56" s="45"/>
-      <c r="BT56" s="45"/>
-      <c r="BU56" s="45"/>
-      <c r="BV56" s="45"/>
-      <c r="BW56" s="45"/>
-      <c r="BX56" s="45"/>
-      <c r="BY56" s="45"/>
-      <c r="BZ56" s="45"/>
-      <c r="CA56" s="45"/>
-      <c r="CB56" s="45"/>
-      <c r="CC56" s="45"/>
-      <c r="CD56" s="45"/>
-      <c r="CE56" s="45"/>
-      <c r="CF56" s="45"/>
-      <c r="CG56" s="45"/>
-      <c r="CH56" s="45"/>
-      <c r="CI56" s="45"/>
-      <c r="CJ56" s="45"/>
-      <c r="CK56" s="45"/>
-      <c r="CL56" s="45"/>
-      <c r="CM56" s="45"/>
-      <c r="CN56" s="45"/>
-      <c r="CO56" s="45"/>
-      <c r="CP56" s="45"/>
-      <c r="CQ56" s="45"/>
-      <c r="CR56" s="45"/>
-      <c r="CS56" s="45"/>
-      <c r="CT56" s="45"/>
-      <c r="CU56" s="45"/>
-      <c r="CV56" s="45"/>
-      <c r="CW56" s="45"/>
-      <c r="CX56" s="45"/>
-      <c r="CY56" s="45"/>
-    </row>
-    <row r="57" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-      <c r="W57" s="45"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45"/>
-      <c r="AI57" s="45"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="45"/>
-      <c r="AL57" s="45"/>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="45"/>
-      <c r="AO57" s="45"/>
-      <c r="AP57" s="45"/>
-      <c r="AQ57" s="45"/>
-      <c r="AR57" s="45"/>
-      <c r="AS57" s="45"/>
-      <c r="AT57" s="45"/>
-      <c r="AU57" s="45"/>
-      <c r="AV57" s="45"/>
-      <c r="AW57" s="45"/>
-      <c r="AX57" s="45"/>
-      <c r="AY57" s="45"/>
-      <c r="AZ57" s="45"/>
-      <c r="BA57" s="45"/>
-      <c r="BB57" s="45"/>
-      <c r="BC57" s="45"/>
-      <c r="BD57" s="45"/>
-      <c r="BE57" s="45"/>
-      <c r="BF57" s="45"/>
-      <c r="BG57" s="45"/>
-      <c r="BH57" s="45"/>
-      <c r="BI57" s="45"/>
-      <c r="BJ57" s="45"/>
-      <c r="BK57" s="45"/>
-      <c r="BL57" s="45"/>
-      <c r="BM57" s="45"/>
-      <c r="BN57" s="45"/>
-      <c r="BO57" s="45"/>
-      <c r="BP57" s="45"/>
-      <c r="BQ57" s="45"/>
-      <c r="BR57" s="45"/>
-      <c r="BS57" s="45"/>
-      <c r="BT57" s="45"/>
-      <c r="BU57" s="45"/>
-      <c r="BV57" s="45"/>
-      <c r="BW57" s="45"/>
-      <c r="BX57" s="45"/>
-      <c r="BY57" s="45"/>
-      <c r="BZ57" s="45"/>
-      <c r="CA57" s="45"/>
-      <c r="CB57" s="45"/>
-      <c r="CC57" s="45"/>
-      <c r="CD57" s="45"/>
-      <c r="CE57" s="45"/>
-      <c r="CF57" s="45"/>
-      <c r="CG57" s="45"/>
-      <c r="CH57" s="45"/>
-      <c r="CI57" s="45"/>
-      <c r="CJ57" s="45"/>
-      <c r="CK57" s="45"/>
-      <c r="CL57" s="45"/>
-      <c r="CM57" s="45"/>
-      <c r="CN57" s="45"/>
-      <c r="CO57" s="45"/>
-      <c r="CP57" s="45"/>
-      <c r="CQ57" s="45"/>
-      <c r="CR57" s="45"/>
-      <c r="CS57" s="45"/>
-      <c r="CT57" s="45"/>
-      <c r="CU57" s="45"/>
-      <c r="CV57" s="45"/>
-      <c r="CW57" s="45"/>
-      <c r="CX57" s="45"/>
-      <c r="CY57" s="45"/>
-    </row>
-    <row r="58" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="45"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="45"/>
-      <c r="AJ58" s="45"/>
-      <c r="AK58" s="45"/>
-      <c r="AL58" s="45"/>
-      <c r="AM58" s="45"/>
-      <c r="AN58" s="45"/>
-      <c r="AO58" s="45"/>
-      <c r="AP58" s="45"/>
-      <c r="AQ58" s="45"/>
-      <c r="AR58" s="45"/>
-      <c r="AS58" s="45"/>
-      <c r="AT58" s="45"/>
-      <c r="AU58" s="45"/>
-      <c r="AV58" s="45"/>
-      <c r="AW58" s="45"/>
-      <c r="AX58" s="45"/>
-      <c r="AY58" s="45"/>
-      <c r="AZ58" s="45"/>
-      <c r="BA58" s="45"/>
-      <c r="BB58" s="45"/>
-      <c r="BC58" s="45"/>
-      <c r="BD58" s="45"/>
-      <c r="BE58" s="45"/>
-      <c r="BF58" s="45"/>
-      <c r="BG58" s="45"/>
-      <c r="BH58" s="45"/>
-      <c r="BI58" s="45"/>
-      <c r="BJ58" s="45"/>
-      <c r="BK58" s="45"/>
-      <c r="BL58" s="45"/>
-      <c r="BM58" s="45"/>
-      <c r="BN58" s="45"/>
-      <c r="BO58" s="45"/>
-      <c r="BP58" s="45"/>
-      <c r="BQ58" s="45"/>
-      <c r="BR58" s="45"/>
-      <c r="BS58" s="45"/>
-      <c r="BT58" s="45"/>
-      <c r="BU58" s="45"/>
-      <c r="BV58" s="45"/>
-      <c r="BW58" s="45"/>
-      <c r="BX58" s="45"/>
-      <c r="BY58" s="45"/>
-      <c r="BZ58" s="45"/>
-      <c r="CA58" s="45"/>
-      <c r="CB58" s="45"/>
-      <c r="CC58" s="45"/>
-      <c r="CD58" s="45"/>
-      <c r="CE58" s="45"/>
-      <c r="CF58" s="45"/>
-      <c r="CG58" s="45"/>
-      <c r="CH58" s="45"/>
-      <c r="CI58" s="45"/>
-      <c r="CJ58" s="45"/>
-      <c r="CK58" s="45"/>
-      <c r="CL58" s="45"/>
-      <c r="CM58" s="45"/>
-      <c r="CN58" s="45"/>
-      <c r="CO58" s="45"/>
-      <c r="CP58" s="45"/>
-      <c r="CQ58" s="45"/>
-      <c r="CR58" s="45"/>
-      <c r="CS58" s="45"/>
-      <c r="CT58" s="45"/>
-      <c r="CU58" s="45"/>
-      <c r="CV58" s="45"/>
-      <c r="CW58" s="45"/>
-      <c r="CX58" s="45"/>
-      <c r="CY58" s="45"/>
-    </row>
-    <row r="59" spans="1:103" s="122" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="151"/>
-    </row>
-    <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
     </row>
     <row r="61" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="69"/>
-      <c r="C62" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="100"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="68"/>
+      <c r="C62" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="99"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="45"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="45"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="45"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="44"/>
     </row>
     <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="45"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="44"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3760,33 +3785,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="79" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="79"/>
+    <col min="1" max="1" width="11.42578125" style="78" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74"/>
-      <c r="D1" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78">
+    <row r="1" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73"/>
+      <c r="D1" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77">
         <f>'En-tête'!F5</f>
         <v>0</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="N1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78">
+      <c r="I1" s="77"/>
+      <c r="N1" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77">
         <f>H1</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="78"/>
+      <c r="Q1" s="77"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3946,21 +3971,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4125,32 +4135,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4167,4 +4167,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/Report Str.xlsx
+++ b/templates/Report Str.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9DBB0-2F0F-487C-9C65-E2F5E98E3D66}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A340B-A1BB-42DA-9CFB-0ED672356A3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$H$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$M$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>The results presented in this report relate only to the items tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specimens delivered by the customer. </t>
-  </si>
-  <si>
-    <t>Specimens prepared by Metcut Research Inc.</t>
   </si>
   <si>
     <t>Date</t>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t>Responsable Qualité</t>
+  </si>
+  <si>
+    <t>Eprouvettes usinées par Metcut Research Inc.</t>
+  </si>
+  <si>
+    <t>Eprouvettes fournies par le client.</t>
   </si>
 </sst>
 </file>
@@ -1480,6 +1480,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,9 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1517,27 +1517,7 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2129,7 +2109,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2137,7 @@
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="154" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -2167,7 +2147,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="155" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="155"/>
       <c r="D3" s="155"/>
@@ -2185,13 +2165,13 @@
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="152"/>
@@ -2201,10 +2181,10 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="152"/>
     </row>
@@ -2213,7 +2193,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="152"/>
@@ -2231,7 +2211,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="152"/>
@@ -2262,62 +2242,62 @@
     </row>
     <row r="13" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="159" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="161"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="156"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
+      <c r="A18" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2328,38 +2308,38 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
+        <v>91</v>
+      </c>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2369,7 +2349,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
@@ -2379,7 +2359,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="16"/>
@@ -2390,7 +2370,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="16"/>
@@ -2409,7 +2389,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2419,7 +2399,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2429,7 +2409,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2448,28 +2428,28 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
-        <v xml:space="preserve">Specimens delivered by the customer. </v>
+        <v>Eprouvettes fournies par le client.</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="33"/>
       <c r="F32" s="16"/>
       <c r="K32" s="82"/>
       <c r="L32" s="83" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="N32" s="82"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2479,7 +2459,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2489,7 +2469,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -2500,16 +2480,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
+      <c r="A37" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2517,13 +2497,13 @@
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
+        <v>118</v>
+      </c>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2540,10 +2520,10 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2556,7 +2536,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
@@ -2574,19 +2554,19 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="166" t="str">
+        <v>121</v>
+      </c>
+      <c r="C43" s="157" t="str">
         <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
         <v>Système hydraulique de xxx kN avec servovalve contrôlé par une boucle d'asservissement.</v>
       </c>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
       <c r="K43" s="82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L43" s="79"/>
       <c r="M43" s="79"/>
@@ -2594,7 +2574,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="13"/>
@@ -2608,10 +2588,10 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" s="13" t="str">
-        <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Four 3 zones à résistances",""),IF(L45&gt;0,"Induction","")))</f>
+        <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Four 3 zones à résistances",""),IF(AND(K45&gt;0,L45&gt;0)," &amp; ",""),IF(L45&gt;0,"Générateur Induction haute fréquence","")))</f>
         <v>NA</v>
       </c>
       <c r="D45" s="13"/>
@@ -2661,13 +2641,13 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G49" s="5"/>
       <c r="K49" s="79"/>
@@ -2690,13 +2670,13 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2790,7 +2770,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="85" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P1" s="86"/>
     </row>
@@ -2799,7 +2779,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="88"/>
       <c r="C5" s="89"/>
@@ -2807,7 +2787,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="89"/>
@@ -2815,7 +2795,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="45" t="s">
@@ -2825,7 +2805,7 @@
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="47" t="s">
@@ -2835,7 +2815,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="47" t="s">
@@ -2853,38 +2833,38 @@
     </row>
     <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140"/>
       <c r="B14" s="141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="142" t="s">
         <v>28</v>
@@ -2894,7 +2874,7 @@
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="144"/>
       <c r="B15" s="145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="146" t="s">
         <v>28</v>
@@ -2903,7 +2883,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="53" t="s">
@@ -2913,41 +2893,41 @@
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="59"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="117"/>
       <c r="C20" s="118" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="134"/>
     </row>
@@ -2957,7 +2937,7 @@
       </c>
       <c r="B21" s="117"/>
       <c r="C21" s="109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="55"/>
     </row>
@@ -2975,91 +2955,91 @@
       </c>
       <c r="B23" s="117"/>
       <c r="C23" s="109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="117"/>
       <c r="C24" s="109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="61"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="120"/>
       <c r="C25" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="63"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="108" t="s">
-        <v>91</v>
-      </c>
       <c r="C28" s="109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
@@ -3067,116 +3047,116 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="60"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="60"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="60"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="109" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="D36" s="61"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="109" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="109" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="109" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="135"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="91"/>
       <c r="B41" s="92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="94"/>
@@ -3184,7 +3164,7 @@
     <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="95"/>
       <c r="B42" s="96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="98"/>
@@ -3203,7 +3183,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="129"/>
       <c r="C45" s="130"/>
@@ -3211,7 +3191,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="136" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="137"/>
       <c r="C46" s="138" t="s">
@@ -3221,7 +3201,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="137"/>
       <c r="C47" s="138" t="s">
@@ -3231,7 +3211,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="88"/>
       <c r="C48" s="148" t="s">
@@ -3241,7 +3221,7 @@
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="47"/>
@@ -3249,7 +3229,7 @@
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="47"/>
@@ -3257,17 +3237,17 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="47" t="s">
@@ -3277,11 +3257,11 @@
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="67"/>
     </row>
@@ -3707,7 +3687,7 @@
     </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" s="68"/>
       <c r="C60" s="69" t="s">
@@ -3792,10 +3772,10 @@
     <row r="1" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="D1" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="76"/>
       <c r="H1" s="77">
@@ -3804,7 +3784,7 @@
       </c>
       <c r="I1" s="77"/>
       <c r="N1" s="75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O1" s="76"/>
       <c r="P1" s="77">
@@ -3971,6 +3951,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4135,7 +4121,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4144,13 +4130,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4169,27 +4166,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/Report Str.xlsx
+++ b/templates/Report Str.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A340B-A1BB-42DA-9CFB-0ED672356A3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3B36C-7C46-4F7B-B71B-1D29B6A5E11D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>COMPTE-RENDU D'ESSAIS DE FATIGUE</t>
   </si>
   <si>
-    <t>CONTRÔLE EFFORT</t>
-  </si>
-  <si>
     <t>A :</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>Type d'essai :</t>
   </si>
   <si>
-    <t>Essais de fatigue vibratoire en contrôle effort</t>
-  </si>
-  <si>
     <t>Tous les essais ont été conduits conformément aux spécifications indiquées ci-dessous.</t>
   </si>
   <si>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t>Eprouvettes fournies par le client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRÔLE DÉFORMATION </t>
+  </si>
+  <si>
+    <t>Essais de fatigue en contrôle déformation</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2108,8 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="155" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C3" s="155"/>
       <c r="D3" s="155"/>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="152"/>
@@ -2181,10 +2181,10 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="G6" s="152"/>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="152"/>
@@ -2211,7 +2211,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="152"/>
@@ -2329,17 +2329,17 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2349,7 +2349,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
@@ -2359,7 +2359,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="16"/>
@@ -2370,7 +2370,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="16"/>
@@ -2389,7 +2389,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2399,7 +2399,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2409,7 +2409,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2428,7 +2428,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
@@ -2439,17 +2439,17 @@
       <c r="F32" s="16"/>
       <c r="K32" s="82"/>
       <c r="L32" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N32" s="82"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2459,7 +2459,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2469,7 +2469,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -2497,7 +2497,7 @@
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C39" s="159"/>
       <c r="D39" s="159"/>
@@ -2523,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2536,7 +2536,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
@@ -2554,7 +2554,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="157" t="str">
         <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
@@ -2588,7 +2588,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Four 3 zones à résistances",""),IF(AND(K45&gt;0,L45&gt;0)," &amp; ",""),IF(L45&gt;0,"Générateur Induction haute fréquence","")))</f>
@@ -2670,13 +2670,13 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -3951,12 +3951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4121,7 +4115,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4130,24 +4124,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4166,10 +4149,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/Report Str.xlsx
+++ b/templates/Report Str.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3B36C-7C46-4F7B-B71B-1D29B6A5E11D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E4601B-FDF4-4FA6-AD56-E3833CD82ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -1159,8 +1159,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1509,6 +1507,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2108,7 +2112,7 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2128,32 +2132,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="150"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2161,7 +2165,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="152"/>
+      <c r="G4" s="150"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -2174,7 +2178,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="152"/>
+      <c r="G5" s="150"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -2186,7 +2190,7 @@
       <c r="F6" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="152"/>
+      <c r="G6" s="150"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
@@ -2196,7 +2200,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="152"/>
+      <c r="G7" s="150"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2204,7 +2208,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="152"/>
+      <c r="G8" s="150"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
@@ -2214,7 +2218,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="152"/>
+      <c r="G9" s="150"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2222,7 +2226,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="152"/>
+      <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2230,7 +2234,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="150"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2247,57 +2251,57 @@
       <c r="B13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="160"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2310,21 +2314,21 @@
       <c r="B20" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2423,7 +2427,7 @@
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="M31" s="81"/>
+      <c r="M31" s="79"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -2437,14 +2441,14 @@
       <c r="D32" s="13"/>
       <c r="E32" s="33"/>
       <c r="F32" s="16"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83" t="s">
+      <c r="K32" s="80"/>
+      <c r="L32" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="M32" s="84" t="s">
+      <c r="M32" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="N32" s="82"/>
+      <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -2480,16 +2484,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2499,11 +2503,11 @@
       <c r="B39" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2513,9 +2517,9 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -2529,9 +2533,9 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -2547,43 +2551,43 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="157" t="str">
+      <c r="C43" s="155" t="str">
         <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
         <v>Système hydraulique de xxx kN avec servovalve contrôlé par une boucle d'asservissement.</v>
       </c>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="K43" s="82" t="s">
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="K43" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -2598,9 +2602,9 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -2610,9 +2614,9 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -2622,9 +2626,9 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2634,9 +2638,9 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="12"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -2650,9 +2654,9 @@
         <v>37</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -2689,8 +2693,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2702,8 +2706,8 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2754,10 +2758,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="D60" sqref="D60:D61"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,979 +2772,979 @@
     <col min="4" max="107" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="85" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K1" s="86" t="s">
+    <row r="1" spans="1:16" s="83" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="86"/>
-    </row>
-    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41"/>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="4" spans="1:16" s="165" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="166"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="143"/>
+      <c r="D14" s="141"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="145"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118" t="s">
+      <c r="B20" s="115"/>
+      <c r="C20" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="134"/>
+      <c r="D20" s="132"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="109" t="s">
+      <c r="B21" s="115"/>
+      <c r="C21" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="109" t="s">
+      <c r="B23" s="115"/>
+      <c r="C23" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="109" t="s">
+      <c r="B24" s="115"/>
+      <c r="C24" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="120"/>
-      <c r="C25" s="112" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="60"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106" t="s">
+      <c r="B26" s="103"/>
+      <c r="C26" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="62"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="54"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="59"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="63"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="63"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="135"/>
+      <c r="D40" s="133"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="89"/>
+      <c r="B41" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95"/>
-      <c r="B42" s="96" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="122"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="120"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="125"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="131"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="136" t="s">
+      <c r="A46" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="137"/>
-      <c r="C46" s="138" t="s">
+      <c r="B46" s="135"/>
+      <c r="C46" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="139"/>
+      <c r="D46" s="137"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138" t="s">
+      <c r="B47" s="135"/>
+      <c r="C47" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="139"/>
+      <c r="D47" s="137"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="148" t="s">
+      <c r="B48" s="86"/>
+      <c r="C48" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="149"/>
+      <c r="D48" s="147"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="123"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="121"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="123"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="121"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="50" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="46"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="47" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="66"/>
+      <c r="D52" s="64"/>
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="1:103" s="103" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="102"/>
+      <c r="D53" s="65"/>
+    </row>
+    <row r="54" spans="1:103" s="101" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="100"/>
     </row>
     <row r="55" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="44"/>
-      <c r="AB55" s="44"/>
-      <c r="AC55" s="44"/>
-      <c r="AD55" s="44"/>
-      <c r="AE55" s="44"/>
-      <c r="AF55" s="44"/>
-      <c r="AG55" s="44"/>
-      <c r="AH55" s="44"/>
-      <c r="AI55" s="44"/>
-      <c r="AJ55" s="44"/>
-      <c r="AK55" s="44"/>
-      <c r="AL55" s="44"/>
-      <c r="AM55" s="44"/>
-      <c r="AN55" s="44"/>
-      <c r="AO55" s="44"/>
-      <c r="AP55" s="44"/>
-      <c r="AQ55" s="44"/>
-      <c r="AR55" s="44"/>
-      <c r="AS55" s="44"/>
-      <c r="AT55" s="44"/>
-      <c r="AU55" s="44"/>
-      <c r="AV55" s="44"/>
-      <c r="AW55" s="44"/>
-      <c r="AX55" s="44"/>
-      <c r="AY55" s="44"/>
-      <c r="AZ55" s="44"/>
-      <c r="BA55" s="44"/>
-      <c r="BB55" s="44"/>
-      <c r="BC55" s="44"/>
-      <c r="BD55" s="44"/>
-      <c r="BE55" s="44"/>
-      <c r="BF55" s="44"/>
-      <c r="BG55" s="44"/>
-      <c r="BH55" s="44"/>
-      <c r="BI55" s="44"/>
-      <c r="BJ55" s="44"/>
-      <c r="BK55" s="44"/>
-      <c r="BL55" s="44"/>
-      <c r="BM55" s="44"/>
-      <c r="BN55" s="44"/>
-      <c r="BO55" s="44"/>
-      <c r="BP55" s="44"/>
-      <c r="BQ55" s="44"/>
-      <c r="BR55" s="44"/>
-      <c r="BS55" s="44"/>
-      <c r="BT55" s="44"/>
-      <c r="BU55" s="44"/>
-      <c r="BV55" s="44"/>
-      <c r="BW55" s="44"/>
-      <c r="BX55" s="44"/>
-      <c r="BY55" s="44"/>
-      <c r="BZ55" s="44"/>
-      <c r="CA55" s="44"/>
-      <c r="CB55" s="44"/>
-      <c r="CC55" s="44"/>
-      <c r="CD55" s="44"/>
-      <c r="CE55" s="44"/>
-      <c r="CF55" s="44"/>
-      <c r="CG55" s="44"/>
-      <c r="CH55" s="44"/>
-      <c r="CI55" s="44"/>
-      <c r="CJ55" s="44"/>
-      <c r="CK55" s="44"/>
-      <c r="CL55" s="44"/>
-      <c r="CM55" s="44"/>
-      <c r="CN55" s="44"/>
-      <c r="CO55" s="44"/>
-      <c r="CP55" s="44"/>
-      <c r="CQ55" s="44"/>
-      <c r="CR55" s="44"/>
-      <c r="CS55" s="44"/>
-      <c r="CT55" s="44"/>
-      <c r="CU55" s="44"/>
-      <c r="CV55" s="44"/>
-      <c r="CW55" s="44"/>
-      <c r="CX55" s="44"/>
-      <c r="CY55" s="44"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="42"/>
+      <c r="AO55" s="42"/>
+      <c r="AP55" s="42"/>
+      <c r="AQ55" s="42"/>
+      <c r="AR55" s="42"/>
+      <c r="AS55" s="42"/>
+      <c r="AT55" s="42"/>
+      <c r="AU55" s="42"/>
+      <c r="AV55" s="42"/>
+      <c r="AW55" s="42"/>
+      <c r="AX55" s="42"/>
+      <c r="AY55" s="42"/>
+      <c r="AZ55" s="42"/>
+      <c r="BA55" s="42"/>
+      <c r="BB55" s="42"/>
+      <c r="BC55" s="42"/>
+      <c r="BD55" s="42"/>
+      <c r="BE55" s="42"/>
+      <c r="BF55" s="42"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="42"/>
+      <c r="BI55" s="42"/>
+      <c r="BJ55" s="42"/>
+      <c r="BK55" s="42"/>
+      <c r="BL55" s="42"/>
+      <c r="BM55" s="42"/>
+      <c r="BN55" s="42"/>
+      <c r="BO55" s="42"/>
+      <c r="BP55" s="42"/>
+      <c r="BQ55" s="42"/>
+      <c r="BR55" s="42"/>
+      <c r="BS55" s="42"/>
+      <c r="BT55" s="42"/>
+      <c r="BU55" s="42"/>
+      <c r="BV55" s="42"/>
+      <c r="BW55" s="42"/>
+      <c r="BX55" s="42"/>
+      <c r="BY55" s="42"/>
+      <c r="BZ55" s="42"/>
+      <c r="CA55" s="42"/>
+      <c r="CB55" s="42"/>
+      <c r="CC55" s="42"/>
+      <c r="CD55" s="42"/>
+      <c r="CE55" s="42"/>
+      <c r="CF55" s="42"/>
+      <c r="CG55" s="42"/>
+      <c r="CH55" s="42"/>
+      <c r="CI55" s="42"/>
+      <c r="CJ55" s="42"/>
+      <c r="CK55" s="42"/>
+      <c r="CL55" s="42"/>
+      <c r="CM55" s="42"/>
+      <c r="CN55" s="42"/>
+      <c r="CO55" s="42"/>
+      <c r="CP55" s="42"/>
+      <c r="CQ55" s="42"/>
+      <c r="CR55" s="42"/>
+      <c r="CS55" s="42"/>
+      <c r="CT55" s="42"/>
+      <c r="CU55" s="42"/>
+      <c r="CV55" s="42"/>
+      <c r="CW55" s="42"/>
+      <c r="CX55" s="42"/>
+      <c r="CY55" s="42"/>
     </row>
     <row r="56" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="44"/>
-      <c r="AC56" s="44"/>
-      <c r="AD56" s="44"/>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="44"/>
-      <c r="AH56" s="44"/>
-      <c r="AI56" s="44"/>
-      <c r="AJ56" s="44"/>
-      <c r="AK56" s="44"/>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="44"/>
-      <c r="AN56" s="44"/>
-      <c r="AO56" s="44"/>
-      <c r="AP56" s="44"/>
-      <c r="AQ56" s="44"/>
-      <c r="AR56" s="44"/>
-      <c r="AS56" s="44"/>
-      <c r="AT56" s="44"/>
-      <c r="AU56" s="44"/>
-      <c r="AV56" s="44"/>
-      <c r="AW56" s="44"/>
-      <c r="AX56" s="44"/>
-      <c r="AY56" s="44"/>
-      <c r="AZ56" s="44"/>
-      <c r="BA56" s="44"/>
-      <c r="BB56" s="44"/>
-      <c r="BC56" s="44"/>
-      <c r="BD56" s="44"/>
-      <c r="BE56" s="44"/>
-      <c r="BF56" s="44"/>
-      <c r="BG56" s="44"/>
-      <c r="BH56" s="44"/>
-      <c r="BI56" s="44"/>
-      <c r="BJ56" s="44"/>
-      <c r="BK56" s="44"/>
-      <c r="BL56" s="44"/>
-      <c r="BM56" s="44"/>
-      <c r="BN56" s="44"/>
-      <c r="BO56" s="44"/>
-      <c r="BP56" s="44"/>
-      <c r="BQ56" s="44"/>
-      <c r="BR56" s="44"/>
-      <c r="BS56" s="44"/>
-      <c r="BT56" s="44"/>
-      <c r="BU56" s="44"/>
-      <c r="BV56" s="44"/>
-      <c r="BW56" s="44"/>
-      <c r="BX56" s="44"/>
-      <c r="BY56" s="44"/>
-      <c r="BZ56" s="44"/>
-      <c r="CA56" s="44"/>
-      <c r="CB56" s="44"/>
-      <c r="CC56" s="44"/>
-      <c r="CD56" s="44"/>
-      <c r="CE56" s="44"/>
-      <c r="CF56" s="44"/>
-      <c r="CG56" s="44"/>
-      <c r="CH56" s="44"/>
-      <c r="CI56" s="44"/>
-      <c r="CJ56" s="44"/>
-      <c r="CK56" s="44"/>
-      <c r="CL56" s="44"/>
-      <c r="CM56" s="44"/>
-      <c r="CN56" s="44"/>
-      <c r="CO56" s="44"/>
-      <c r="CP56" s="44"/>
-      <c r="CQ56" s="44"/>
-      <c r="CR56" s="44"/>
-      <c r="CS56" s="44"/>
-      <c r="CT56" s="44"/>
-      <c r="CU56" s="44"/>
-      <c r="CV56" s="44"/>
-      <c r="CW56" s="44"/>
-      <c r="CX56" s="44"/>
-      <c r="CY56" s="44"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="42"/>
+      <c r="AI56" s="42"/>
+      <c r="AJ56" s="42"/>
+      <c r="AK56" s="42"/>
+      <c r="AL56" s="42"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="42"/>
+      <c r="AO56" s="42"/>
+      <c r="AP56" s="42"/>
+      <c r="AQ56" s="42"/>
+      <c r="AR56" s="42"/>
+      <c r="AS56" s="42"/>
+      <c r="AT56" s="42"/>
+      <c r="AU56" s="42"/>
+      <c r="AV56" s="42"/>
+      <c r="AW56" s="42"/>
+      <c r="AX56" s="42"/>
+      <c r="AY56" s="42"/>
+      <c r="AZ56" s="42"/>
+      <c r="BA56" s="42"/>
+      <c r="BB56" s="42"/>
+      <c r="BC56" s="42"/>
+      <c r="BD56" s="42"/>
+      <c r="BE56" s="42"/>
+      <c r="BF56" s="42"/>
+      <c r="BG56" s="42"/>
+      <c r="BH56" s="42"/>
+      <c r="BI56" s="42"/>
+      <c r="BJ56" s="42"/>
+      <c r="BK56" s="42"/>
+      <c r="BL56" s="42"/>
+      <c r="BM56" s="42"/>
+      <c r="BN56" s="42"/>
+      <c r="BO56" s="42"/>
+      <c r="BP56" s="42"/>
+      <c r="BQ56" s="42"/>
+      <c r="BR56" s="42"/>
+      <c r="BS56" s="42"/>
+      <c r="BT56" s="42"/>
+      <c r="BU56" s="42"/>
+      <c r="BV56" s="42"/>
+      <c r="BW56" s="42"/>
+      <c r="BX56" s="42"/>
+      <c r="BY56" s="42"/>
+      <c r="BZ56" s="42"/>
+      <c r="CA56" s="42"/>
+      <c r="CB56" s="42"/>
+      <c r="CC56" s="42"/>
+      <c r="CD56" s="42"/>
+      <c r="CE56" s="42"/>
+      <c r="CF56" s="42"/>
+      <c r="CG56" s="42"/>
+      <c r="CH56" s="42"/>
+      <c r="CI56" s="42"/>
+      <c r="CJ56" s="42"/>
+      <c r="CK56" s="42"/>
+      <c r="CL56" s="42"/>
+      <c r="CM56" s="42"/>
+      <c r="CN56" s="42"/>
+      <c r="CO56" s="42"/>
+      <c r="CP56" s="42"/>
+      <c r="CQ56" s="42"/>
+      <c r="CR56" s="42"/>
+      <c r="CS56" s="42"/>
+      <c r="CT56" s="42"/>
+      <c r="CU56" s="42"/>
+      <c r="CV56" s="42"/>
+      <c r="CW56" s="42"/>
+      <c r="CX56" s="42"/>
+      <c r="CY56" s="42"/>
     </row>
     <row r="57" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="44"/>
-      <c r="AM57" s="44"/>
-      <c r="AN57" s="44"/>
-      <c r="AO57" s="44"/>
-      <c r="AP57" s="44"/>
-      <c r="AQ57" s="44"/>
-      <c r="AR57" s="44"/>
-      <c r="AS57" s="44"/>
-      <c r="AT57" s="44"/>
-      <c r="AU57" s="44"/>
-      <c r="AV57" s="44"/>
-      <c r="AW57" s="44"/>
-      <c r="AX57" s="44"/>
-      <c r="AY57" s="44"/>
-      <c r="AZ57" s="44"/>
-      <c r="BA57" s="44"/>
-      <c r="BB57" s="44"/>
-      <c r="BC57" s="44"/>
-      <c r="BD57" s="44"/>
-      <c r="BE57" s="44"/>
-      <c r="BF57" s="44"/>
-      <c r="BG57" s="44"/>
-      <c r="BH57" s="44"/>
-      <c r="BI57" s="44"/>
-      <c r="BJ57" s="44"/>
-      <c r="BK57" s="44"/>
-      <c r="BL57" s="44"/>
-      <c r="BM57" s="44"/>
-      <c r="BN57" s="44"/>
-      <c r="BO57" s="44"/>
-      <c r="BP57" s="44"/>
-      <c r="BQ57" s="44"/>
-      <c r="BR57" s="44"/>
-      <c r="BS57" s="44"/>
-      <c r="BT57" s="44"/>
-      <c r="BU57" s="44"/>
-      <c r="BV57" s="44"/>
-      <c r="BW57" s="44"/>
-      <c r="BX57" s="44"/>
-      <c r="BY57" s="44"/>
-      <c r="BZ57" s="44"/>
-      <c r="CA57" s="44"/>
-      <c r="CB57" s="44"/>
-      <c r="CC57" s="44"/>
-      <c r="CD57" s="44"/>
-      <c r="CE57" s="44"/>
-      <c r="CF57" s="44"/>
-      <c r="CG57" s="44"/>
-      <c r="CH57" s="44"/>
-      <c r="CI57" s="44"/>
-      <c r="CJ57" s="44"/>
-      <c r="CK57" s="44"/>
-      <c r="CL57" s="44"/>
-      <c r="CM57" s="44"/>
-      <c r="CN57" s="44"/>
-      <c r="CO57" s="44"/>
-      <c r="CP57" s="44"/>
-      <c r="CQ57" s="44"/>
-      <c r="CR57" s="44"/>
-      <c r="CS57" s="44"/>
-      <c r="CT57" s="44"/>
-      <c r="CU57" s="44"/>
-      <c r="CV57" s="44"/>
-      <c r="CW57" s="44"/>
-      <c r="CX57" s="44"/>
-      <c r="CY57" s="44"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="42"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="42"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="42"/>
+      <c r="AG57" s="42"/>
+      <c r="AH57" s="42"/>
+      <c r="AI57" s="42"/>
+      <c r="AJ57" s="42"/>
+      <c r="AK57" s="42"/>
+      <c r="AL57" s="42"/>
+      <c r="AM57" s="42"/>
+      <c r="AN57" s="42"/>
+      <c r="AO57" s="42"/>
+      <c r="AP57" s="42"/>
+      <c r="AQ57" s="42"/>
+      <c r="AR57" s="42"/>
+      <c r="AS57" s="42"/>
+      <c r="AT57" s="42"/>
+      <c r="AU57" s="42"/>
+      <c r="AV57" s="42"/>
+      <c r="AW57" s="42"/>
+      <c r="AX57" s="42"/>
+      <c r="AY57" s="42"/>
+      <c r="AZ57" s="42"/>
+      <c r="BA57" s="42"/>
+      <c r="BB57" s="42"/>
+      <c r="BC57" s="42"/>
+      <c r="BD57" s="42"/>
+      <c r="BE57" s="42"/>
+      <c r="BF57" s="42"/>
+      <c r="BG57" s="42"/>
+      <c r="BH57" s="42"/>
+      <c r="BI57" s="42"/>
+      <c r="BJ57" s="42"/>
+      <c r="BK57" s="42"/>
+      <c r="BL57" s="42"/>
+      <c r="BM57" s="42"/>
+      <c r="BN57" s="42"/>
+      <c r="BO57" s="42"/>
+      <c r="BP57" s="42"/>
+      <c r="BQ57" s="42"/>
+      <c r="BR57" s="42"/>
+      <c r="BS57" s="42"/>
+      <c r="BT57" s="42"/>
+      <c r="BU57" s="42"/>
+      <c r="BV57" s="42"/>
+      <c r="BW57" s="42"/>
+      <c r="BX57" s="42"/>
+      <c r="BY57" s="42"/>
+      <c r="BZ57" s="42"/>
+      <c r="CA57" s="42"/>
+      <c r="CB57" s="42"/>
+      <c r="CC57" s="42"/>
+      <c r="CD57" s="42"/>
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
+      <c r="CH57" s="42"/>
+      <c r="CI57" s="42"/>
+      <c r="CJ57" s="42"/>
+      <c r="CK57" s="42"/>
+      <c r="CL57" s="42"/>
+      <c r="CM57" s="42"/>
+      <c r="CN57" s="42"/>
+      <c r="CO57" s="42"/>
+      <c r="CP57" s="42"/>
+      <c r="CQ57" s="42"/>
+      <c r="CR57" s="42"/>
+      <c r="CS57" s="42"/>
+      <c r="CT57" s="42"/>
+      <c r="CU57" s="42"/>
+      <c r="CV57" s="42"/>
+      <c r="CW57" s="42"/>
+      <c r="CX57" s="42"/>
+      <c r="CY57" s="42"/>
     </row>
     <row r="58" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="44"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="44"/>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="44"/>
-      <c r="AJ58" s="44"/>
-      <c r="AK58" s="44"/>
-      <c r="AL58" s="44"/>
-      <c r="AM58" s="44"/>
-      <c r="AN58" s="44"/>
-      <c r="AO58" s="44"/>
-      <c r="AP58" s="44"/>
-      <c r="AQ58" s="44"/>
-      <c r="AR58" s="44"/>
-      <c r="AS58" s="44"/>
-      <c r="AT58" s="44"/>
-      <c r="AU58" s="44"/>
-      <c r="AV58" s="44"/>
-      <c r="AW58" s="44"/>
-      <c r="AX58" s="44"/>
-      <c r="AY58" s="44"/>
-      <c r="AZ58" s="44"/>
-      <c r="BA58" s="44"/>
-      <c r="BB58" s="44"/>
-      <c r="BC58" s="44"/>
-      <c r="BD58" s="44"/>
-      <c r="BE58" s="44"/>
-      <c r="BF58" s="44"/>
-      <c r="BG58" s="44"/>
-      <c r="BH58" s="44"/>
-      <c r="BI58" s="44"/>
-      <c r="BJ58" s="44"/>
-      <c r="BK58" s="44"/>
-      <c r="BL58" s="44"/>
-      <c r="BM58" s="44"/>
-      <c r="BN58" s="44"/>
-      <c r="BO58" s="44"/>
-      <c r="BP58" s="44"/>
-      <c r="BQ58" s="44"/>
-      <c r="BR58" s="44"/>
-      <c r="BS58" s="44"/>
-      <c r="BT58" s="44"/>
-      <c r="BU58" s="44"/>
-      <c r="BV58" s="44"/>
-      <c r="BW58" s="44"/>
-      <c r="BX58" s="44"/>
-      <c r="BY58" s="44"/>
-      <c r="BZ58" s="44"/>
-      <c r="CA58" s="44"/>
-      <c r="CB58" s="44"/>
-      <c r="CC58" s="44"/>
-      <c r="CD58" s="44"/>
-      <c r="CE58" s="44"/>
-      <c r="CF58" s="44"/>
-      <c r="CG58" s="44"/>
-      <c r="CH58" s="44"/>
-      <c r="CI58" s="44"/>
-      <c r="CJ58" s="44"/>
-      <c r="CK58" s="44"/>
-      <c r="CL58" s="44"/>
-      <c r="CM58" s="44"/>
-      <c r="CN58" s="44"/>
-      <c r="CO58" s="44"/>
-      <c r="CP58" s="44"/>
-      <c r="CQ58" s="44"/>
-      <c r="CR58" s="44"/>
-      <c r="CS58" s="44"/>
-      <c r="CT58" s="44"/>
-      <c r="CU58" s="44"/>
-      <c r="CV58" s="44"/>
-      <c r="CW58" s="44"/>
-      <c r="CX58" s="44"/>
-      <c r="CY58" s="44"/>
-    </row>
-    <row r="59" spans="1:103" s="121" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="150"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="42"/>
+      <c r="AI58" s="42"/>
+      <c r="AJ58" s="42"/>
+      <c r="AK58" s="42"/>
+      <c r="AL58" s="42"/>
+      <c r="AM58" s="42"/>
+      <c r="AN58" s="42"/>
+      <c r="AO58" s="42"/>
+      <c r="AP58" s="42"/>
+      <c r="AQ58" s="42"/>
+      <c r="AR58" s="42"/>
+      <c r="AS58" s="42"/>
+      <c r="AT58" s="42"/>
+      <c r="AU58" s="42"/>
+      <c r="AV58" s="42"/>
+      <c r="AW58" s="42"/>
+      <c r="AX58" s="42"/>
+      <c r="AY58" s="42"/>
+      <c r="AZ58" s="42"/>
+      <c r="BA58" s="42"/>
+      <c r="BB58" s="42"/>
+      <c r="BC58" s="42"/>
+      <c r="BD58" s="42"/>
+      <c r="BE58" s="42"/>
+      <c r="BF58" s="42"/>
+      <c r="BG58" s="42"/>
+      <c r="BH58" s="42"/>
+      <c r="BI58" s="42"/>
+      <c r="BJ58" s="42"/>
+      <c r="BK58" s="42"/>
+      <c r="BL58" s="42"/>
+      <c r="BM58" s="42"/>
+      <c r="BN58" s="42"/>
+      <c r="BO58" s="42"/>
+      <c r="BP58" s="42"/>
+      <c r="BQ58" s="42"/>
+      <c r="BR58" s="42"/>
+      <c r="BS58" s="42"/>
+      <c r="BT58" s="42"/>
+      <c r="BU58" s="42"/>
+      <c r="BV58" s="42"/>
+      <c r="BW58" s="42"/>
+      <c r="BX58" s="42"/>
+      <c r="BY58" s="42"/>
+      <c r="BZ58" s="42"/>
+      <c r="CA58" s="42"/>
+      <c r="CB58" s="42"/>
+      <c r="CC58" s="42"/>
+      <c r="CD58" s="42"/>
+      <c r="CE58" s="42"/>
+      <c r="CF58" s="42"/>
+      <c r="CG58" s="42"/>
+      <c r="CH58" s="42"/>
+      <c r="CI58" s="42"/>
+      <c r="CJ58" s="42"/>
+      <c r="CK58" s="42"/>
+      <c r="CL58" s="42"/>
+      <c r="CM58" s="42"/>
+      <c r="CN58" s="42"/>
+      <c r="CO58" s="42"/>
+      <c r="CP58" s="42"/>
+      <c r="CQ58" s="42"/>
+      <c r="CR58" s="42"/>
+      <c r="CS58" s="42"/>
+      <c r="CT58" s="42"/>
+      <c r="CU58" s="42"/>
+      <c r="CV58" s="42"/>
+      <c r="CW58" s="42"/>
+      <c r="CX58" s="42"/>
+      <c r="CY58" s="42"/>
+    </row>
+    <row r="59" spans="1:103" s="119" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="148"/>
     </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
     </row>
     <row r="61" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="44"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="44" t="s">
+      <c r="B62" s="66"/>
+      <c r="C62" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="44"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="44"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="44"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="42"/>
     </row>
     <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="44"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="44"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="42"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3765,33 +3769,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="78" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="78"/>
+    <col min="1" max="1" width="11.42578125" style="76" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73"/>
-      <c r="D1" s="73" t="s">
+    <row r="1" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71"/>
+      <c r="D1" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77">
+      <c r="G1" s="74"/>
+      <c r="H1" s="75">
         <f>'En-tête'!F5</f>
         <v>0</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="I1" s="75"/>
+      <c r="N1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77">
+      <c r="O1" s="74"/>
+      <c r="P1" s="75">
         <f>H1</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="77"/>
+      <c r="Q1" s="75"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4116,18 +4120,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4150,14 +4154,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
@@ -4172,4 +4168,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>